--- a/data/trans_orig/P14B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D01585-2B66-42DD-82D2-29F7F62B0E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB83820-4A69-482E-B08C-FEFBDBE613FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA710580-994E-4EFF-A0D4-22ADF04CA95E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1CA3993-800E-4FF7-B0AA-4EE8F28C6CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,10 +76,10 @@
     <t>79,32%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>70,42%</t>
@@ -94,10 +94,10 @@
     <t>73,84%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>20,68%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
   </si>
   <si>
     <t>29,58%</t>
@@ -124,10 +124,10 @@
     <t>26,16%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>75,46%</t>
   </si>
   <si>
-    <t>27,62%</t>
+    <t>39,74%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -157,16 +157,16 @@
     <t>60,34%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>72,38%</t>
+    <t>60,26%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -175,10 +175,10 @@
     <t>39,66%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,10 +196,10 @@
     <t>77,84%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>65,68%</t>
@@ -214,16 +214,19 @@
     <t>71,38%</t>
   </si>
   <si>
-    <t>82,98%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>34,32%</t>
@@ -238,7 +241,10 @@
     <t>28,62%</t>
   </si>
   <si>
-    <t>17,02%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -415,139 +421,133 @@
     <t>95,16%</t>
   </si>
   <si>
-    <t>72,59%</t>
+    <t>74,42%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>27,41%</t>
+    <t>25,58%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>51,28%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>27,6%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>56,91%</t>
   </si>
   <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
   </si>
   <si>
     <t>48,72%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>72,4%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>43,09%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>59,82%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
   </si>
   <si>
     <t>69,47%</t>
@@ -556,31 +556,31 @@
     <t>53,36%</t>
   </si>
   <si>
-    <t>83,15%</t>
+    <t>82,84%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>30,53%</t>
   </si>
   <si>
-    <t>16,85%</t>
+    <t>17,16%</t>
   </si>
   <si>
     <t>46,64%</t>
@@ -589,19 +589,19 @@
     <t>27,74%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E28A935-5B4D-4208-ACAD-C67750A61CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAD9196-64CB-4E2F-8D5C-541B98497EED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1629,10 +1629,10 @@
         <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1647,13 @@
         <v>4857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -1662,13 +1662,13 @@
         <v>8505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1677,13 +1677,13 @@
         <v>13362</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054E3866-2DA5-4059-B0A9-4C99A1901A9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF049E2-10A2-4103-9C47-930E02964308}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1775,7 +1775,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1882,10 +1882,10 @@
         <v>11889</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
@@ -1897,13 +1897,13 @@
         <v>10416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -1912,13 +1912,13 @@
         <v>22305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1933,13 @@
         <v>1694</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -1948,13 +1948,13 @@
         <v>3217</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -1963,13 +1963,13 @@
         <v>4911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,10 +2037,10 @@
         <v>6632</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>34</v>
@@ -2052,10 +2052,10 @@
         <v>3507</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>34</v>
@@ -2067,13 +2067,13 @@
         <v>10139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2088,13 @@
         <v>2076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2103,13 +2103,13 @@
         <v>1018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2118,13 +2118,13 @@
         <v>3094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,7 +2192,7 @@
         <v>2711</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>35</v>
@@ -2222,10 +2222,10 @@
         <v>3737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>34</v>
@@ -2243,7 +2243,7 @@
         <v>1152</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>35</v>
@@ -2273,13 +2273,13 @@
         <v>1152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2347,13 @@
         <v>21232</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2362,13 +2362,13 @@
         <v>14947</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2377,13 +2377,13 @@
         <v>36181</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2398,13 @@
         <v>4922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2413,13 +2413,13 @@
         <v>4236</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2428,13 +2428,13 @@
         <v>9157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2490,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2509,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2420A1-B7E9-4667-904E-76C92671BB3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1B819-A564-466A-AEA4-380D90523B90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2526,7 +2526,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2633,10 +2633,10 @@
         <v>11427</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
@@ -2648,13 +2648,13 @@
         <v>7567</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -2663,13 +2663,13 @@
         <v>18993</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2684,13 @@
         <v>581</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2699,13 +2699,13 @@
         <v>2841</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2714,13 +2714,13 @@
         <v>3423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2788,13 @@
         <v>7029</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2803,13 +2803,13 @@
         <v>5195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2818,13 +2818,13 @@
         <v>12224</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,10 +2839,10 @@
         <v>6678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>151</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B12-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB83820-4A69-482E-B08C-FEFBDBE613FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE70C968-DBCC-48AC-B7C6-15B6D1483A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1CA3993-800E-4FF7-B0AA-4EE8F28C6CAB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5406C2BD-F2C8-4C8B-B7E0-C3FBD0B51AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="186">
   <si>
     <t>Población cuya angina de pecho le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>79,32%</t>
   </si>
   <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>20,68%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
   </si>
   <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>75,46%</t>
   </si>
   <si>
-    <t>39,74%</t>
+    <t>28,52%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -157,16 +157,16 @@
     <t>60,34%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>60,26%</t>
+    <t>71,48%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -175,10 +175,10 @@
     <t>39,66%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,151 +196,145 @@
     <t>77,84%</t>
   </si>
   <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya angina de pecho le limita en 2015 (Tasa respuesta: 0,65%)</t>
+    <t>Población cuya angina de pecho le limita en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>62,26%</t>
+    <t>61,15%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>81,95%</t>
   </si>
   <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>37,74%</t>
+    <t>38,85%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>37,91%</t>
+    <t>39,56%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>62,09%</t>
+    <t>60,44%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>70,18%</t>
@@ -364,55 +358,55 @@
     <t>81,18%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>77,92%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>Población cuya angina de pecho le limita en 2023 (Tasa respuesta: 0,9%)</t>
@@ -1013,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAD9196-64CB-4E2F-8D5C-541B98497EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D21FCF-FE15-4F72-BB4A-4E686551E64D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1758,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF049E2-10A2-4103-9C47-930E02964308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC53728F-1725-4583-99DA-27374C5F5367}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2055,7 +2049,7 @@
         <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>34</v>
@@ -2067,13 +2061,13 @@
         <v>10139</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2082,13 @@
         <v>2076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2103,13 +2097,13 @@
         <v>1018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2118,13 +2112,13 @@
         <v>3094</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,7 +2186,7 @@
         <v>2711</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>35</v>
@@ -2222,10 +2216,10 @@
         <v>3737</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>34</v>
@@ -2243,7 +2237,7 @@
         <v>1152</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>35</v>
@@ -2273,13 +2267,13 @@
         <v>1152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2341,13 @@
         <v>21232</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2362,13 +2356,13 @@
         <v>14947</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2377,13 +2371,13 @@
         <v>36181</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2392,13 @@
         <v>4922</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2413,13 +2407,13 @@
         <v>4236</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2428,13 +2422,13 @@
         <v>9157</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,7 +2503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1B819-A564-466A-AEA4-380D90523B90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95424670-F104-482B-836B-D38711AF071C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2526,7 +2520,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2633,10 +2627,10 @@
         <v>11427</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
@@ -2648,13 +2642,13 @@
         <v>7567</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -2663,13 +2657,13 @@
         <v>18993</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2678,13 @@
         <v>581</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2699,13 +2693,13 @@
         <v>2841</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2714,13 +2708,13 @@
         <v>3423</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2782,13 @@
         <v>7029</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2803,13 +2797,13 @@
         <v>5195</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2818,13 +2812,13 @@
         <v>12224</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2833,13 @@
         <v>6678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -2854,13 +2848,13 @@
         <v>2579</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2869,13 +2863,13 @@
         <v>9257</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2937,13 @@
         <v>3666</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2973,13 +2967,13 @@
         <v>5025</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2988,13 @@
         <v>2462</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3024,13 +3018,13 @@
         <v>2462</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3092,13 @@
         <v>22122</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -3113,13 +3107,13 @@
         <v>14121</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -3128,13 +3122,13 @@
         <v>36243</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3143,13 @@
         <v>9721</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -3164,13 +3158,13 @@
         <v>5420</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -3179,13 +3173,13 @@
         <v>15141</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
